--- a/A3/dataFiles/dataFile.xlsx
+++ b/A3/dataFiles/dataFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexfennell/Desktop/cs680/A3/dataFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7997B8B4-F0B4-D843-9AD7-6C82392C47D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1C4111-E357-CB4F-A6E8-9F92534A3DF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="460" windowWidth="27800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="27800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="164">
   <si>
     <t>StudentID</t>
   </si>
@@ -498,18 +498,6 @@
   </si>
   <si>
     <t>jv660@drexel.edu</t>
-  </si>
-  <si>
-    <t>jb326</t>
-  </si>
-  <si>
-    <t>Jim</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>jb326@drexel.edu</t>
   </si>
   <si>
     <t>id</t>
@@ -876,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1448,20 +1436,6 @@
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>159</v>
-      </c>
-      <c r="B41" t="s">
-        <v>160</v>
-      </c>
-      <c r="C41" t="s">
-        <v>161</v>
-      </c>
-      <c r="D41" t="s">
-        <v>162</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1471,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1488,13 +1462,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1502,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C2">
         <v>5000</v>
@@ -1513,7 +1487,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C3">
         <v>10000</v>
